--- a/MB contract.xlsx
+++ b/MB contract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\CompilerMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA343856-A258-4D4A-9FDF-EAD6D300818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386CE199-9F07-4A56-99DE-E00305E4E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E83D5656-7D19-3449-97F9-4B82594C66D2}"/>
   </bookViews>
@@ -95,10 +95,10 @@
     <t>symbol table</t>
   </si>
   <si>
-    <t>definitions en assignments</t>
-  </si>
-  <si>
     <t>Binary, unary operations</t>
+  </si>
+  <si>
+    <t>definitions, declarations en assignments</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
